--- a/TestChecklist.xlsx
+++ b/TestChecklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimch\repos\javacoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBA9877-58DC-4C03-81FC-FB6FE37308A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203BBCE2-D9EA-46A9-927E-9479AD68500A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0041EFBC-3A8B-4E83-BF28-3AA19FCA3A85}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Name of Test</t>
   </si>
@@ -531,7 +531,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,10 +653,18 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">

--- a/TestChecklist.xlsx
+++ b/TestChecklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimch\repos\javacoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203BBCE2-D9EA-46A9-927E-9479AD68500A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AA87B6-0086-4343-BE50-06CE747F2DA6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0041EFBC-3A8B-4E83-BF28-3AA19FCA3A85}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Name of Test</t>
   </si>
@@ -531,7 +531,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,88 +671,112 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>

--- a/TestChecklist.xlsx
+++ b/TestChecklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimch\repos\javacoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AA87B6-0086-4343-BE50-06CE747F2DA6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E97B8E1-562D-4F87-967D-530D11649DAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0041EFBC-3A8B-4E83-BF28-3AA19FCA3A85}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Name of Test</t>
   </si>
@@ -151,13 +151,16 @@
   </si>
   <si>
     <t>KC</t>
+  </si>
+  <si>
+    <t>TD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +172,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -209,11 +219,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0735C9-CE92-4EFE-9ADB-66C0A5299E15}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,25 +736,45 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
+      <c r="B22" s="4"/>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">

--- a/TestChecklist.xlsx
+++ b/TestChecklist.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimch\repos\javacoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E97B8E1-562D-4F87-967D-530D11649DAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB23A0C-47D2-4795-8A4C-FB474251F685}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0041EFBC-3A8B-4E83-BF28-3AA19FCA3A85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0041EFBC-3A8B-4E83-BF28-3AA19FCA3A85}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ModelCreationTest" sheetId="1" r:id="rId1"/>
+    <sheet name="ModelGameOverTest" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Name of Test</t>
   </si>
@@ -154,13 +155,55 @@
   </si>
   <si>
     <t>TD</t>
+  </si>
+  <si>
+    <t>testStartRoundShouldThrowIfGameAlreadyOver</t>
+  </si>
+  <si>
+    <t>testGameNotOverWhenThereIsStillRoundsLeft</t>
+  </si>
+  <si>
+    <t>testGameOverAfterAllRoundsUsed</t>
+  </si>
+  <si>
+    <t>testGameOverIfAllDetectivesStuck</t>
+  </si>
+  <si>
+    <t>testGameOverIfMrXStuck</t>
+  </si>
+  <si>
+    <t>testGameNotOverIfMrXWasFreedBeforeNextRotation</t>
+  </si>
+  <si>
+    <t>testGameOverIfMrXCaptured</t>
+  </si>
+  <si>
+    <t>testDetectiveWinsIfMrXCornered</t>
+  </si>
+  <si>
+    <t>testGameNotOverIfMrXCorneredButCanStillEscape</t>
+  </si>
+  <si>
+    <t>testGameNotOverBeforeAnyRoundWithNonTerminatingConfiguration</t>
+  </si>
+  <si>
+    <t>testGameOverBeforeAnyRoundWithTerminatingConfiguration</t>
+  </si>
+  <si>
+    <t>testWinningPlayerIsEmptyBeforeGameOver</t>
+  </si>
+  <si>
+    <t>testWinningPlayerOnlyContainsBlackIfMrXWins</t>
+  </si>
+  <si>
+    <t>testWinningPlayerOnlyContainAllDetectivesIfDetectiveWins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +225,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -219,12 +267,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0735C9-CE92-4EFE-9ADB-66C0A5299E15}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -841,4 +892,108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1CE12E-ED00-40D8-8161-4E60C977F84C}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestChecklist.xlsx
+++ b/TestChecklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimch\repos\javacoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB23A0C-47D2-4795-8A4C-FB474251F685}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7A0CA1-D9BF-4415-A297-B305F1536AAE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0041EFBC-3A8B-4E83-BF28-3AA19FCA3A85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0041EFBC-3A8B-4E83-BF28-3AA19FCA3A85}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelCreationTest" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>Name of Test</t>
   </si>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0735C9-CE92-4EFE-9ADB-66C0A5299E15}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,7 +807,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -825,13 +825,17 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -861,6 +865,10 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -898,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1CE12E-ED00-40D8-8161-4E60C977F84C}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/TestChecklist.xlsx
+++ b/TestChecklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimch\repos\javacoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7A0CA1-D9BF-4415-A297-B305F1536AAE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2B96F7-4329-4EB9-BCAD-AC6DD334118D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0041EFBC-3A8B-4E83-BF28-3AA19FCA3A85}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>Name of Test</t>
   </si>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0735C9-CE92-4EFE-9ADB-66C0A5299E15}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,26 +841,46 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -871,29 +891,49 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/TestChecklist.xlsx
+++ b/TestChecklist.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimch\repos\javacoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2B96F7-4329-4EB9-BCAD-AC6DD334118D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A8532E-E9D5-410B-931A-F58D5FB93713}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0041EFBC-3A8B-4E83-BF28-3AA19FCA3A85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0041EFBC-3A8B-4E83-BF28-3AA19FCA3A85}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelCreationTest" sheetId="1" r:id="rId1"/>
     <sheet name="ModelGameOverTest" sheetId="3" r:id="rId2"/>
+    <sheet name="ModelRoundTest" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>Name of Test</t>
   </si>
@@ -197,6 +198,45 @@
   </si>
   <si>
     <t>testWinningPlayerOnlyContainAllDetectivesIfDetectiveWins</t>
+  </si>
+  <si>
+    <t>testPlayerNotified</t>
+  </si>
+  <si>
+    <t>testCallbackIsNotNull</t>
+  </si>
+  <si>
+    <t>testInitialPositionMatchFirstRound</t>
+  </si>
+  <si>
+    <t>testCallbackPositionMatchPlayerLocationDuringRevealRound</t>
+  </si>
+  <si>
+    <t>testCallbackPositionMatchPlayerLocationDuringHiddenRound</t>
+  </si>
+  <si>
+    <t>testGetCurrentPlayerCorrectForAllRounds</t>
+  </si>
+  <si>
+    <t>testRoundIncrementsAfterAllPlayersHavePlayed</t>
+  </si>
+  <si>
+    <t>testRoundIncrementsCorrectlyForDoubleMove</t>
+  </si>
+  <si>
+    <t>testMrXIsTheFirstToPlay</t>
+  </si>
+  <si>
+    <t>testRoundWaitsForPlayerWhoDoesNotRespond</t>
+  </si>
+  <si>
+    <t>testRoundRotationNotifiesAllPlayer</t>
+  </si>
+  <si>
+    <t>testCallbackWithNullWillThrow</t>
+  </si>
+  <si>
+    <t>testCallbackWithIllegalMoveNotInGivenMovesWillThrow</t>
   </si>
 </sst>
 </file>
@@ -232,7 +272,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +282,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -276,6 +328,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0735C9-CE92-4EFE-9ADB-66C0A5299E15}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,4 +1098,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38004FD-14FD-4A75-8BBE-FB1204A63269}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="52.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>